--- a/crime_report.xlsx
+++ b/crime_report.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27628"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tusk\Desktop\котя\учеба\4 семак\анализ\RGZ\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D74AF2D5-036E-4F0F-A3CE-983BDDC83E3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -73,11 +67,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -137,25 +131,17 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -193,7 +179,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -227,7 +213,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -262,10 +247,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -438,34 +422,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P205"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="T22" sqref="T22"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.85546875" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -515,7 +479,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16">
       <c r="A2" s="2">
         <v>37653</v>
       </c>
@@ -565,7 +529,7 @@
         <v>5364</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16">
       <c r="A3" s="2">
         <v>37681</v>
       </c>
@@ -615,7 +579,7 @@
         <v>5938</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16">
       <c r="A4" s="2">
         <v>37712</v>
       </c>
@@ -665,7 +629,7 @@
         <v>5230</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16">
       <c r="A5" s="2">
         <v>37742</v>
       </c>
@@ -715,7 +679,7 @@
         <v>5112</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16">
       <c r="A6" s="2">
         <v>37773</v>
       </c>
@@ -765,7 +729,7 @@
         <v>5321</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16">
       <c r="A7" s="2">
         <v>37803</v>
       </c>
@@ -815,7 +779,7 @@
         <v>3803</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16">
       <c r="A8" s="2">
         <v>37834</v>
       </c>
@@ -865,7 +829,7 @@
         <v>4075</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16">
       <c r="A9" s="2">
         <v>37865</v>
       </c>
@@ -915,7 +879,7 @@
         <v>4397</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16">
       <c r="A10" s="2">
         <v>37895</v>
       </c>
@@ -965,7 +929,7 @@
         <v>4264</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16">
       <c r="A11" s="2">
         <v>37926</v>
       </c>
@@ -1015,7 +979,7 @@
         <v>3969</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16">
       <c r="A12" s="2">
         <v>37956</v>
       </c>
@@ -1065,7 +1029,7 @@
         <v>2069</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16">
       <c r="A13" s="2">
         <v>37987</v>
       </c>
@@ -1115,7 +1079,7 @@
         <v>2503</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16">
       <c r="A14" s="2">
         <v>38018</v>
       </c>
@@ -1165,7 +1129,7 @@
         <v>2759</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16">
       <c r="A15" s="2">
         <v>38047</v>
       </c>
@@ -1215,7 +1179,7 @@
         <v>2953</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16">
       <c r="A16" s="2">
         <v>38078</v>
       </c>
@@ -1265,7 +1229,7 @@
         <v>2380</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16">
       <c r="A17" s="2">
         <v>38108</v>
       </c>
@@ -1315,7 +1279,7 @@
         <v>2580</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16">
       <c r="A18" s="2">
         <v>38139</v>
       </c>
@@ -1365,7 +1329,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16">
       <c r="A19" s="2">
         <v>38169</v>
       </c>
@@ -1415,7 +1379,7 @@
         <v>2185</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16">
       <c r="A20" s="2">
         <v>38200</v>
       </c>
@@ -1465,7 +1429,7 @@
         <v>2091</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16">
       <c r="A21" s="2">
         <v>38231</v>
       </c>
@@ -1515,7 +1479,7 @@
         <v>2351</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16">
       <c r="A22" s="2">
         <v>38261</v>
       </c>
@@ -1565,7 +1529,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16">
       <c r="A23" s="2">
         <v>38292</v>
       </c>
@@ -1615,7 +1579,7 @@
         <v>1973</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16">
       <c r="A24" s="2">
         <v>38322</v>
       </c>
@@ -1665,7 +1629,7 @@
         <v>2153</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16">
       <c r="A25" s="2">
         <v>38353</v>
       </c>
@@ -1715,7 +1679,7 @@
         <v>2254</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16">
       <c r="A26" s="2">
         <v>38384</v>
       </c>
@@ -1765,7 +1729,7 @@
         <v>3028</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16">
       <c r="A27" s="2">
         <v>38412</v>
       </c>
@@ -1815,7 +1779,7 @@
         <v>3263</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16">
       <c r="A28" s="2">
         <v>38443</v>
       </c>
@@ -1865,7 +1829,7 @@
         <v>2754</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16">
       <c r="A29" s="2">
         <v>38473</v>
       </c>
@@ -1915,7 +1879,7 @@
         <v>2962</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16">
       <c r="A30" s="2">
         <v>38504</v>
       </c>
@@ -1965,7 +1929,7 @@
         <v>2853</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16">
       <c r="A31" s="2">
         <v>38534</v>
       </c>
@@ -2015,7 +1979,7 @@
         <v>2107</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16">
       <c r="A32" s="2">
         <v>38565</v>
       </c>
@@ -2065,7 +2029,7 @@
         <v>2074</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:16">
       <c r="A33" s="2">
         <v>38596</v>
       </c>
@@ -2115,7 +2079,7 @@
         <v>2348</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:16">
       <c r="A34" s="2">
         <v>38626</v>
       </c>
@@ -2165,7 +2129,7 @@
         <v>1947</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:16">
       <c r="A35" s="2">
         <v>38657</v>
       </c>
@@ -2215,7 +2179,7 @@
         <v>2113</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:16">
       <c r="A36" s="2">
         <v>38687</v>
       </c>
@@ -2265,7 +2229,7 @@
         <v>2205</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:16">
       <c r="A37" s="2">
         <v>38718</v>
       </c>
@@ -2315,7 +2279,7 @@
         <v>2180</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:16">
       <c r="A38" s="2">
         <v>38749</v>
       </c>
@@ -2365,7 +2329,7 @@
         <v>2774</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:16">
       <c r="A39" s="2">
         <v>38777</v>
       </c>
@@ -2415,7 +2379,7 @@
         <v>3202</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:16">
       <c r="A40" s="2">
         <v>38808</v>
       </c>
@@ -2465,7 +2429,7 @@
         <v>2558</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:16">
       <c r="A41" s="2">
         <v>38838</v>
       </c>
@@ -2515,7 +2479,7 @@
         <v>3017</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:16">
       <c r="A42" s="2">
         <v>38869</v>
       </c>
@@ -2565,7 +2529,7 @@
         <v>3176</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:16">
       <c r="A43" s="2">
         <v>38899</v>
       </c>
@@ -2615,7 +2579,7 @@
         <v>2164</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:16">
       <c r="A44" s="2">
         <v>38930</v>
       </c>
@@ -2665,7 +2629,7 @@
         <v>2333</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:16">
       <c r="A45" s="2">
         <v>38961</v>
       </c>
@@ -2715,7 +2679,7 @@
         <v>2513</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:16">
       <c r="A46" s="2">
         <v>38991</v>
       </c>
@@ -2765,7 +2729,7 @@
         <v>2029</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:16">
       <c r="A47" s="2">
         <v>39022</v>
       </c>
@@ -2815,7 +2779,7 @@
         <v>2257</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:16">
       <c r="A48" s="2">
         <v>39052</v>
       </c>
@@ -2865,7 +2829,7 @@
         <v>1852</v>
       </c>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:16">
       <c r="A49" s="2">
         <v>39083</v>
       </c>
@@ -2915,7 +2879,7 @@
         <v>2639</v>
       </c>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:16">
       <c r="A50" s="2">
         <v>39114</v>
       </c>
@@ -2965,7 +2929,7 @@
         <v>2965</v>
       </c>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:16">
       <c r="A51" s="2">
         <v>39142</v>
       </c>
@@ -3015,7 +2979,7 @@
         <v>3434</v>
       </c>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:16">
       <c r="A52" s="2">
         <v>39173</v>
       </c>
@@ -3065,7 +3029,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:16">
       <c r="A53" s="2">
         <v>39203</v>
       </c>
@@ -3115,7 +3079,7 @@
         <v>2767</v>
       </c>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:16">
       <c r="A54" s="2">
         <v>39234</v>
       </c>
@@ -3165,7 +3129,7 @@
         <v>3086</v>
       </c>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:16">
       <c r="A55" s="2">
         <v>39264</v>
       </c>
@@ -3215,7 +3179,7 @@
         <v>2026</v>
       </c>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:16">
       <c r="A56" s="2">
         <v>39295</v>
       </c>
@@ -3265,7 +3229,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:16">
       <c r="A57" s="2">
         <v>39326</v>
       </c>
@@ -3315,7 +3279,7 @@
         <v>2467</v>
       </c>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:16">
       <c r="A58" s="2">
         <v>39356</v>
       </c>
@@ -3365,7 +3329,7 @@
         <v>2195</v>
       </c>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:16">
       <c r="A59" s="2">
         <v>39387</v>
       </c>
@@ -3415,7 +3379,7 @@
         <v>2089</v>
       </c>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:16">
       <c r="A60" s="2">
         <v>39417</v>
       </c>
@@ -3465,7 +3429,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:16">
       <c r="A61" s="2">
         <v>39448</v>
       </c>
@@ -3515,7 +3479,7 @@
         <v>2903</v>
       </c>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:16">
       <c r="A62" s="2">
         <v>39479</v>
       </c>
@@ -3565,7 +3529,7 @@
         <v>3099</v>
       </c>
     </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:16">
       <c r="A63" s="2">
         <v>39508</v>
       </c>
@@ -3615,7 +3579,7 @@
         <v>3609</v>
       </c>
     </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:16">
       <c r="A64" s="2">
         <v>39539</v>
       </c>
@@ -3665,7 +3629,7 @@
         <v>2986</v>
       </c>
     </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:16">
       <c r="A65" s="2">
         <v>39569</v>
       </c>
@@ -3715,7 +3679,7 @@
         <v>2689</v>
       </c>
     </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:16">
       <c r="A66" s="2">
         <v>39600</v>
       </c>
@@ -3765,7 +3729,7 @@
         <v>2561</v>
       </c>
     </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:16">
       <c r="A67" s="2">
         <v>39630</v>
       </c>
@@ -3815,7 +3779,7 @@
         <v>2389</v>
       </c>
     </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:16">
       <c r="A68" s="2">
         <v>39661</v>
       </c>
@@ -3865,7 +3829,7 @@
         <v>2556</v>
       </c>
     </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:16">
       <c r="A69" s="2">
         <v>39692</v>
       </c>
@@ -3915,7 +3879,7 @@
         <v>2495</v>
       </c>
     </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:16">
       <c r="A70" s="2">
         <v>39722</v>
       </c>
@@ -3965,7 +3929,7 @@
         <v>2396</v>
       </c>
     </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:16">
       <c r="A71" s="2">
         <v>39753</v>
       </c>
@@ -4015,7 +3979,7 @@
         <v>1961</v>
       </c>
     </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:16">
       <c r="A72" s="2">
         <v>39783</v>
       </c>
@@ -4065,7 +4029,7 @@
         <v>2089</v>
       </c>
     </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:16">
       <c r="A73" s="2">
         <v>39814</v>
       </c>
@@ -4115,7 +4079,7 @@
         <v>3577</v>
       </c>
     </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:16">
       <c r="A74" s="2">
         <v>39845</v>
       </c>
@@ -4165,7 +4129,7 @@
         <v>3450</v>
       </c>
     </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:16">
       <c r="A75" s="2">
         <v>39873</v>
       </c>
@@ -4215,7 +4179,7 @@
         <v>4207</v>
       </c>
     </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:16">
       <c r="A76" s="2">
         <v>39904</v>
       </c>
@@ -4265,7 +4229,7 @@
         <v>3013</v>
       </c>
     </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:16">
       <c r="A77" s="2">
         <v>39934</v>
       </c>
@@ -4315,7 +4279,7 @@
         <v>2978</v>
       </c>
     </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:16">
       <c r="A78" s="2">
         <v>39965</v>
       </c>
@@ -4365,7 +4329,7 @@
         <v>3415</v>
       </c>
     </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:16">
       <c r="A79" s="2">
         <v>39995</v>
       </c>
@@ -4415,7 +4379,7 @@
         <v>2228</v>
       </c>
     </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:16">
       <c r="A80" s="2">
         <v>40026</v>
       </c>
@@ -4465,7 +4429,7 @@
         <v>2262</v>
       </c>
     </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:16">
       <c r="A81" s="2">
         <v>40057</v>
       </c>
@@ -4515,7 +4479,7 @@
         <v>2670</v>
       </c>
     </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:16">
       <c r="A82" s="2">
         <v>40087</v>
       </c>
@@ -4565,7 +4529,7 @@
         <v>2048</v>
       </c>
     </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:16">
       <c r="A83" s="2">
         <v>40118</v>
       </c>
@@ -4615,7 +4579,7 @@
         <v>2057</v>
       </c>
     </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:16">
       <c r="A84" s="2">
         <v>40148</v>
       </c>
@@ -4665,7 +4629,7 @@
         <v>2344</v>
       </c>
     </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:16">
       <c r="A85" s="2">
         <v>40179</v>
       </c>
@@ -4715,7 +4679,7 @@
         <v>3520</v>
       </c>
     </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:16">
       <c r="A86" s="2">
         <v>40210</v>
       </c>
@@ -4765,7 +4729,7 @@
         <v>2976</v>
       </c>
     </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:16">
       <c r="A87" s="2">
         <v>40238</v>
       </c>
@@ -4815,7 +4779,7 @@
         <v>3721</v>
       </c>
     </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:16">
       <c r="A88" s="2">
         <v>40269</v>
       </c>
@@ -4865,7 +4829,7 @@
         <v>2675</v>
       </c>
     </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:16">
       <c r="A89" s="2">
         <v>40299</v>
       </c>
@@ -4915,7 +4879,7 @@
         <v>2592</v>
       </c>
     </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:16">
       <c r="A90" s="2">
         <v>40330</v>
       </c>
@@ -4965,7 +4929,7 @@
         <v>2900</v>
       </c>
     </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:16">
       <c r="A91" s="2">
         <v>40360</v>
       </c>
@@ -5015,7 +4979,7 @@
         <v>1872</v>
       </c>
     </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:16">
       <c r="A92" s="2">
         <v>40391</v>
       </c>
@@ -5065,7 +5029,7 @@
         <v>2032</v>
       </c>
     </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:16">
       <c r="A93" s="2">
         <v>40422</v>
       </c>
@@ -5115,7 +5079,7 @@
         <v>2340</v>
       </c>
     </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:16">
       <c r="A94" s="2">
         <v>40452</v>
       </c>
@@ -5165,7 +5129,7 @@
         <v>1798</v>
       </c>
     </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:16">
       <c r="A95" s="2">
         <v>40483</v>
       </c>
@@ -5215,7 +5179,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:16">
       <c r="A96" s="2">
         <v>40513</v>
       </c>
@@ -5265,7 +5229,7 @@
         <v>2134</v>
       </c>
     </row>
-    <row r="97" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:16">
       <c r="A97" s="2">
         <v>40544</v>
       </c>
@@ -5315,7 +5279,7 @@
         <v>2845</v>
       </c>
     </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:16">
       <c r="A98" s="2">
         <v>40575</v>
       </c>
@@ -5365,7 +5329,7 @@
         <v>3078</v>
       </c>
     </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:16">
       <c r="A99" s="2">
         <v>40603</v>
       </c>
@@ -5415,7 +5379,7 @@
         <v>3595</v>
       </c>
     </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:16">
       <c r="A100" s="2">
         <v>40634</v>
       </c>
@@ -5465,7 +5429,7 @@
         <v>2533</v>
       </c>
     </row>
-    <row r="101" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:16">
       <c r="A101" s="2">
         <v>40664</v>
       </c>
@@ -5515,7 +5479,7 @@
         <v>2395</v>
       </c>
     </row>
-    <row r="102" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:16">
       <c r="A102" s="2">
         <v>40695</v>
       </c>
@@ -5565,7 +5529,7 @@
         <v>2637</v>
       </c>
     </row>
-    <row r="103" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:16">
       <c r="A103" s="2">
         <v>40725</v>
       </c>
@@ -5615,7 +5579,7 @@
         <v>1637</v>
       </c>
     </row>
-    <row r="104" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:16">
       <c r="A104" s="2">
         <v>40756</v>
       </c>
@@ -5665,7 +5629,7 @@
         <v>2026</v>
       </c>
     </row>
-    <row r="105" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:16">
       <c r="A105" s="2">
         <v>40787</v>
       </c>
@@ -5715,7 +5679,7 @@
         <v>2157</v>
       </c>
     </row>
-    <row r="106" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:16">
       <c r="A106" s="2">
         <v>40817</v>
       </c>
@@ -5765,7 +5729,7 @@
         <v>1691</v>
       </c>
     </row>
-    <row r="107" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:16">
       <c r="A107" s="2">
         <v>40848</v>
       </c>
@@ -5815,7 +5779,7 @@
         <v>1777</v>
       </c>
     </row>
-    <row r="108" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:16">
       <c r="A108" s="2">
         <v>40878</v>
       </c>
@@ -5865,7 +5829,7 @@
         <v>1763</v>
       </c>
     </row>
-    <row r="109" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:16">
       <c r="A109" s="2">
         <v>40909</v>
       </c>
@@ -5915,7 +5879,7 @@
         <v>2364</v>
       </c>
     </row>
-    <row r="110" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:16">
       <c r="A110" s="2">
         <v>40940</v>
       </c>
@@ -5965,7 +5929,7 @@
         <v>2946</v>
       </c>
     </row>
-    <row r="111" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:16">
       <c r="A111" s="2">
         <v>40969</v>
       </c>
@@ -6015,7 +5979,7 @@
         <v>2957</v>
       </c>
     </row>
-    <row r="112" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:16">
       <c r="A112" s="2">
         <v>41000</v>
       </c>
@@ -6065,7 +6029,7 @@
         <v>2301</v>
       </c>
     </row>
-    <row r="113" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:16">
       <c r="A113" s="2">
         <v>41030</v>
       </c>
@@ -6115,7 +6079,7 @@
         <v>2424</v>
       </c>
     </row>
-    <row r="114" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:16">
       <c r="A114" s="2">
         <v>41061</v>
       </c>
@@ -6165,7 +6129,7 @@
         <v>2464</v>
       </c>
     </row>
-    <row r="115" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:16">
       <c r="A115" s="2">
         <v>41091</v>
       </c>
@@ -6215,7 +6179,7 @@
         <v>1664</v>
       </c>
     </row>
-    <row r="116" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:16">
       <c r="A116" s="2">
         <v>41122</v>
       </c>
@@ -6265,7 +6229,7 @@
         <v>1711</v>
       </c>
     </row>
-    <row r="117" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:16">
       <c r="A117" s="2">
         <v>41153</v>
       </c>
@@ -6315,7 +6279,7 @@
         <v>2311</v>
       </c>
     </row>
-    <row r="118" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:16">
       <c r="A118" s="2">
         <v>41183</v>
       </c>
@@ -6365,7 +6329,7 @@
         <v>1732</v>
       </c>
     </row>
-    <row r="119" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:16">
       <c r="A119" s="2">
         <v>41214</v>
       </c>
@@ -6415,7 +6379,7 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="120" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:16">
       <c r="A120" s="2">
         <v>41244</v>
       </c>
@@ -6465,7 +6429,7 @@
         <v>1765</v>
       </c>
     </row>
-    <row r="121" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:16">
       <c r="A121" s="2">
         <v>41275</v>
       </c>
@@ -6515,7 +6479,7 @@
         <v>2552</v>
       </c>
     </row>
-    <row r="122" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:16">
       <c r="A122" s="2">
         <v>41306</v>
       </c>
@@ -6565,7 +6529,7 @@
         <v>3037</v>
       </c>
     </row>
-    <row r="123" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:16">
       <c r="A123" s="2">
         <v>41334</v>
       </c>
@@ -6615,7 +6579,7 @@
         <v>2988</v>
       </c>
     </row>
-    <row r="124" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:16">
       <c r="A124" s="2">
         <v>41365</v>
       </c>
@@ -6665,7 +6629,7 @@
         <v>2479</v>
       </c>
     </row>
-    <row r="125" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:16">
       <c r="A125" s="2">
         <v>41395</v>
       </c>
@@ -6715,7 +6679,7 @@
         <v>2194</v>
       </c>
     </row>
-    <row r="126" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:16">
       <c r="A126" s="2">
         <v>41426</v>
       </c>
@@ -6765,7 +6729,7 @@
         <v>2389</v>
       </c>
     </row>
-    <row r="127" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:16">
       <c r="A127" s="2">
         <v>41456</v>
       </c>
@@ -6815,7 +6779,7 @@
         <v>1873</v>
       </c>
     </row>
-    <row r="128" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:16">
       <c r="A128" s="2">
         <v>41487</v>
       </c>
@@ -6865,7 +6829,7 @@
         <v>1836</v>
       </c>
     </row>
-    <row r="129" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:16">
       <c r="A129" s="2">
         <v>41518</v>
       </c>
@@ -6915,7 +6879,7 @@
         <v>2110</v>
       </c>
     </row>
-    <row r="130" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:16">
       <c r="A130" s="2">
         <v>41548</v>
       </c>
@@ -6965,7 +6929,7 @@
         <v>1811</v>
       </c>
     </row>
-    <row r="131" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:16">
       <c r="A131" s="2">
         <v>41579</v>
       </c>
@@ -7015,7 +6979,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="132" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:16">
       <c r="A132" s="2">
         <v>41609</v>
       </c>
@@ -7065,7 +7029,7 @@
         <v>1799</v>
       </c>
     </row>
-    <row r="133" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:16">
       <c r="A133" s="2">
         <v>41640</v>
       </c>
@@ -7115,7 +7079,7 @@
         <v>2511</v>
       </c>
     </row>
-    <row r="134" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:16">
       <c r="A134" s="2">
         <v>41671</v>
       </c>
@@ -7165,7 +7129,7 @@
         <v>2877</v>
       </c>
     </row>
-    <row r="135" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:16">
       <c r="A135" s="2">
         <v>41699</v>
       </c>
@@ -7215,7 +7179,7 @@
         <v>2973</v>
       </c>
     </row>
-    <row r="136" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:16">
       <c r="A136" s="2">
         <v>41730</v>
       </c>
@@ -7265,7 +7229,7 @@
         <v>2440</v>
       </c>
     </row>
-    <row r="137" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:16">
       <c r="A137" s="2">
         <v>41760</v>
       </c>
@@ -7315,7 +7279,7 @@
         <v>2325</v>
       </c>
     </row>
-    <row r="138" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:16">
       <c r="A138" s="2">
         <v>41791</v>
       </c>
@@ -7365,7 +7329,7 @@
         <v>2426</v>
       </c>
     </row>
-    <row r="139" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:16">
       <c r="A139" s="2">
         <v>41821</v>
       </c>
@@ -7415,7 +7379,7 @@
         <v>1753</v>
       </c>
     </row>
-    <row r="140" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:16">
       <c r="A140" s="2">
         <v>41852</v>
       </c>
@@ -7465,7 +7429,7 @@
         <v>1946</v>
       </c>
     </row>
-    <row r="141" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:16">
       <c r="A141" s="2">
         <v>41883</v>
       </c>
@@ -7515,7 +7479,7 @@
         <v>1991</v>
       </c>
     </row>
-    <row r="142" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:16">
       <c r="A142" s="2">
         <v>41913</v>
       </c>
@@ -7565,7 +7529,7 @@
         <v>1864</v>
       </c>
     </row>
-    <row r="143" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:16">
       <c r="A143" s="2">
         <v>41944</v>
       </c>
@@ -7615,7 +7579,7 @@
         <v>1640</v>
       </c>
     </row>
-    <row r="144" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:16">
       <c r="A144" s="2">
         <v>41974</v>
       </c>
@@ -7665,7 +7629,7 @@
         <v>1719</v>
       </c>
     </row>
-    <row r="145" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:16">
       <c r="A145" s="2">
         <v>42005</v>
       </c>
@@ -7715,7 +7679,7 @@
         <v>2395</v>
       </c>
     </row>
-    <row r="146" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:16">
       <c r="A146" s="2">
         <v>42036</v>
       </c>
@@ -7765,7 +7729,7 @@
         <v>2561</v>
       </c>
     </row>
-    <row r="147" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:16">
       <c r="A147" s="2">
         <v>42064</v>
       </c>
@@ -7815,7 +7779,7 @@
         <v>2937</v>
       </c>
     </row>
-    <row r="148" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:16">
       <c r="A148" s="2">
         <v>42095</v>
       </c>
@@ -7865,7 +7829,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="149" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:16">
       <c r="A149" s="2">
         <v>42125</v>
       </c>
@@ -7915,7 +7879,7 @@
         <v>2253</v>
       </c>
     </row>
-    <row r="150" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:16">
       <c r="A150" s="2">
         <v>42156</v>
       </c>
@@ -7965,7 +7929,7 @@
         <v>2611</v>
       </c>
     </row>
-    <row r="151" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:16">
       <c r="A151" s="2">
         <v>42186</v>
       </c>
@@ -8015,7 +7979,7 @@
         <v>2083</v>
       </c>
     </row>
-    <row r="152" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:16">
       <c r="A152" s="2">
         <v>42217</v>
       </c>
@@ -8065,7 +8029,7 @@
         <v>1982</v>
       </c>
     </row>
-    <row r="153" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:16">
       <c r="A153" s="2">
         <v>42248</v>
       </c>
@@ -8115,7 +8079,7 @@
         <v>2047</v>
       </c>
     </row>
-    <row r="154" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:16">
       <c r="A154" s="2">
         <v>42278</v>
       </c>
@@ -8165,7 +8129,7 @@
         <v>1824</v>
       </c>
     </row>
-    <row r="155" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:16">
       <c r="A155" s="2">
         <v>42309</v>
       </c>
@@ -8215,7 +8179,7 @@
         <v>2198</v>
       </c>
     </row>
-    <row r="156" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:16">
       <c r="A156" s="2">
         <v>42339</v>
       </c>
@@ -8265,7 +8229,7 @@
         <v>1929</v>
       </c>
     </row>
-    <row r="157" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:16">
       <c r="A157" s="2">
         <v>42370</v>
       </c>
@@ -8315,7 +8279,7 @@
         <v>2317</v>
       </c>
     </row>
-    <row r="158" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:16">
       <c r="A158" s="2">
         <v>42401</v>
       </c>
@@ -8365,7 +8329,7 @@
         <v>2881</v>
       </c>
     </row>
-    <row r="159" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:16">
       <c r="A159" s="2">
         <v>42430</v>
       </c>
@@ -8415,7 +8379,7 @@
         <v>3098</v>
       </c>
     </row>
-    <row r="160" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:16">
       <c r="A160" s="2">
         <v>42461</v>
       </c>
@@ -8465,7 +8429,7 @@
         <v>2501</v>
       </c>
     </row>
-    <row r="161" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:16">
       <c r="A161" s="2">
         <v>42491</v>
       </c>
@@ -8515,7 +8479,7 @@
         <v>2405</v>
       </c>
     </row>
-    <row r="162" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:16">
       <c r="A162" s="2">
         <v>42522</v>
       </c>
@@ -8565,7 +8529,7 @@
         <v>2572</v>
       </c>
     </row>
-    <row r="163" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:16">
       <c r="A163" s="2">
         <v>42552</v>
       </c>
@@ -8615,7 +8579,7 @@
         <v>1844</v>
       </c>
     </row>
-    <row r="164" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:16">
       <c r="A164" s="2">
         <v>42583</v>
       </c>
@@ -8665,7 +8629,7 @@
         <v>2079</v>
       </c>
     </row>
-    <row r="165" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:16">
       <c r="A165" s="2">
         <v>42614</v>
       </c>
@@ -8715,7 +8679,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="166" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:16">
       <c r="A166" s="2">
         <v>42644</v>
       </c>
@@ -8765,7 +8729,7 @@
         <v>1759</v>
       </c>
     </row>
-    <row r="167" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:16">
       <c r="A167" s="2">
         <v>42675</v>
       </c>
@@ -8815,7 +8779,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="168" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:16">
       <c r="A168" s="2">
         <v>42705</v>
       </c>
@@ -8865,7 +8829,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="169" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:16">
       <c r="A169" s="2">
         <v>42736</v>
       </c>
@@ -8915,7 +8879,7 @@
         <v>2329</v>
       </c>
     </row>
-    <row r="170" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:16">
       <c r="A170" s="2">
         <v>42767</v>
       </c>
@@ -8965,7 +8929,7 @@
         <v>3530</v>
       </c>
     </row>
-    <row r="171" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:16">
       <c r="A171" s="2">
         <v>42795</v>
       </c>
@@ -9015,7 +8979,7 @@
         <v>3061</v>
       </c>
     </row>
-    <row r="172" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:16">
       <c r="A172" s="2">
         <v>42826</v>
       </c>
@@ -9065,7 +9029,7 @@
         <v>2370</v>
       </c>
     </row>
-    <row r="173" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:16">
       <c r="A173" s="2">
         <v>42856</v>
       </c>
@@ -9115,7 +9079,7 @@
         <v>2558</v>
       </c>
     </row>
-    <row r="174" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:16">
       <c r="A174" s="2">
         <v>42887</v>
       </c>
@@ -9165,7 +9129,7 @@
         <v>2492</v>
       </c>
     </row>
-    <row r="175" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:16">
       <c r="A175" s="2">
         <v>42917</v>
       </c>
@@ -9215,7 +9179,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="176" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:16">
       <c r="A176" s="2">
         <v>42948</v>
       </c>
@@ -9265,7 +9229,7 @@
         <v>2089</v>
       </c>
     </row>
-    <row r="177" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:16">
       <c r="A177" s="2">
         <v>42979</v>
       </c>
@@ -9315,7 +9279,7 @@
         <v>2161</v>
       </c>
     </row>
-    <row r="178" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:16">
       <c r="A178" s="2">
         <v>43009</v>
       </c>
@@ -9365,7 +9329,7 @@
         <v>1862</v>
       </c>
     </row>
-    <row r="179" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:16">
       <c r="A179" s="2">
         <v>43040</v>
       </c>
@@ -9415,7 +9379,7 @@
         <v>2216</v>
       </c>
     </row>
-    <row r="180" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:16">
       <c r="A180" s="2">
         <v>43070</v>
       </c>
@@ -9465,7 +9429,7 @@
         <v>2099</v>
       </c>
     </row>
-    <row r="181" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:16">
       <c r="A181" s="2">
         <v>43101</v>
       </c>
@@ -9515,7 +9479,7 @@
         <v>2273</v>
       </c>
     </row>
-    <row r="182" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:16">
       <c r="A182" s="2">
         <v>43132</v>
       </c>
@@ -9565,7 +9529,7 @@
         <v>2744</v>
       </c>
     </row>
-    <row r="183" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:16">
       <c r="A183" s="2">
         <v>43160</v>
       </c>
@@ -9615,7 +9579,7 @@
         <v>2834</v>
       </c>
     </row>
-    <row r="184" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:16">
       <c r="A184" s="2">
         <v>43191</v>
       </c>
@@ -9665,7 +9629,7 @@
         <v>3244</v>
       </c>
     </row>
-    <row r="185" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:16">
       <c r="A185" s="2">
         <v>43221</v>
       </c>
@@ -9715,7 +9679,7 @@
         <v>2347</v>
       </c>
     </row>
-    <row r="186" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:16">
       <c r="A186" s="2">
         <v>43252</v>
       </c>
@@ -9765,7 +9729,7 @@
         <v>2266</v>
       </c>
     </row>
-    <row r="187" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:16">
       <c r="A187" s="2">
         <v>43282</v>
       </c>
@@ -9815,7 +9779,7 @@
         <v>2082</v>
       </c>
     </row>
-    <row r="188" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:16">
       <c r="A188" s="2">
         <v>43313</v>
       </c>
@@ -9865,7 +9829,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="189" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:16">
       <c r="A189" s="2">
         <v>43344</v>
       </c>
@@ -9915,7 +9879,7 @@
         <v>1909</v>
       </c>
     </row>
-    <row r="190" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:16">
       <c r="A190" s="2">
         <v>43374</v>
       </c>
@@ -9965,7 +9929,7 @@
         <v>2040</v>
       </c>
     </row>
-    <row r="191" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:16">
       <c r="A191" s="2">
         <v>43405</v>
       </c>
@@ -10015,7 +9979,7 @@
         <v>1903</v>
       </c>
     </row>
-    <row r="192" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:16">
       <c r="A192" s="2">
         <v>43435</v>
       </c>
@@ -10065,7 +10029,7 @@
         <v>1804</v>
       </c>
     </row>
-    <row r="193" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:16">
       <c r="A193" s="2">
         <v>43466</v>
       </c>
@@ -10115,7 +10079,7 @@
         <v>2280</v>
       </c>
     </row>
-    <row r="194" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:16">
       <c r="A194" s="2">
         <v>43497</v>
       </c>
@@ -10165,7 +10129,7 @@
         <v>2926</v>
       </c>
     </row>
-    <row r="195" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:16">
       <c r="A195" s="2">
         <v>43525</v>
       </c>
@@ -10215,7 +10179,7 @@
         <v>2599</v>
       </c>
     </row>
-    <row r="196" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:16">
       <c r="A196" s="2">
         <v>43556</v>
       </c>
@@ -10265,7 +10229,7 @@
         <v>3111</v>
       </c>
     </row>
-    <row r="197" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:16">
       <c r="A197" s="2">
         <v>43586</v>
       </c>
@@ -10315,7 +10279,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="198" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:16">
       <c r="A198" s="2">
         <v>43617</v>
       </c>
@@ -10365,7 +10329,7 @@
         <v>2868</v>
       </c>
     </row>
-    <row r="199" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:16">
       <c r="A199" s="2">
         <v>43647</v>
       </c>
@@ -10415,7 +10379,7 @@
         <v>1730</v>
       </c>
     </row>
-    <row r="200" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:16">
       <c r="A200" s="2">
         <v>43678</v>
       </c>
@@ -10465,7 +10429,7 @@
         <v>1849</v>
       </c>
     </row>
-    <row r="201" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:16">
       <c r="A201" s="2">
         <v>43709</v>
       </c>
@@ -10515,7 +10479,7 @@
         <v>1945</v>
       </c>
     </row>
-    <row r="202" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:16">
       <c r="A202" s="2">
         <v>43739</v>
       </c>
@@ -10565,7 +10529,7 @@
         <v>1744</v>
       </c>
     </row>
-    <row r="203" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:16">
       <c r="A203" s="2">
         <v>43770</v>
       </c>
@@ -10615,7 +10579,7 @@
         <v>1742</v>
       </c>
     </row>
-    <row r="204" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:16">
       <c r="A204" s="2">
         <v>43800</v>
       </c>
@@ -10665,7 +10629,7 @@
         <v>1754</v>
       </c>
     </row>
-    <row r="205" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:16">
       <c r="A205" s="2">
         <v>43831</v>
       </c>
